--- a/medicine/Enfance/Faith_Erin_Hicks/Faith_Erin_Hicks.xlsx
+++ b/medicine/Enfance/Faith_Erin_Hicks/Faith_Erin_Hicks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Faith Erin Hicks (née en Colombie-Britannique) est une auteure de bande dessinée canadienne.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2022 est publié son roman graphique Ride On, autour du monde équestre[1]. Il est traduit en français l'année suivante sous le titre L'échappée belle[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2022 est publié son roman graphique Ride On, autour du monde équestre. Il est traduit en français l'année suivante sous le titre L'échappée belle.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Zombies Calling, SLG Publishing, 2007.
 The War at Ellsmere, SLG Publishing, 2008.
@@ -587,7 +603,9 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2014 : Prix Eisner de la meilleure publication pour enfants avec The Adventures of Superhero Girl.
 2019 : Prix Eisner de la meilleure publication pour enfants avec The Nameless City, tome 3 : The Divided Earth.</t>
